--- a/Consumo1.xlsx
+++ b/Consumo1.xlsx
@@ -420,13 +420,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="8" min="1" max="1"/>
     <col width="9.140625" customWidth="1" style="5" min="2" max="2"/>
@@ -638,25 +638,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14/06/2023 16:27</t>
+          <t>16/06/2023 11:15</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="C5" s="6">
-        <f>B5 * 600 / 100 *100</f>
+        <f>D5 * 600 / 100 *100</f>
         <v/>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.89</v>
       </c>
       <c r="E5" s="6">
-        <f>D5 * 600 / 100 *100</f>
+        <f>B5 * 600 / 100 *100</f>
         <v/>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="G5" s="6">
         <f>F5 * 600 / 100 *100</f>
@@ -677,7 +677,7 @@
         <v/>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M5" s="6">
         <f>L5 * 600 / 100 *100</f>
@@ -685,6 +685,165 @@
       </c>
       <c r="N5" s="6">
         <f>C5+E5+G5+I5+K5+M5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16/06/2023 11:16</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="6">
+        <f>D6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="6">
+        <f>B6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G6" s="6">
+        <f>F6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I6" s="6">
+        <f>H6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K6" s="6">
+        <f>J6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N6" s="6">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/06/2023 11:17</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="6">
+        <f>D7 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="6">
+        <f>B7 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G7" s="6">
+        <f>F7 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I7" s="6">
+        <f>H7 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <f>J7 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="6">
+        <f>L7 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N7" s="6">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16/06/2023 11:38</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="6">
+        <f>D8 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E8" s="6">
+        <f>B8 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G8" s="6">
+        <f>F8 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I8" s="6">
+        <f>H8 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <f>J8 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="6">
+        <f>L8 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N8" s="6">
+        <f>C8+E8+G8+I8+K8+M8</f>
         <v/>
       </c>
     </row>
